--- a/sair/src/Maincomponent/GDT/template.xlsx
+++ b/sair/src/Maincomponent/GDT/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ghala\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ghala\OneDrive\Desktop\SAIRletest-1\sair\src\Maincomponent\GDT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9109FEE-C7E6-41C4-A448-7F39736DFD63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD9DB631-38F6-4FE5-BEFD-920835AC29EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="1100" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2120" yWindow="2120" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,19 +22,19 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>Fname</t>
-  </si>
-  <si>
-    <t>Lname</t>
-  </si>
-  <si>
-    <t>PhoneNumber</t>
-  </si>
-  <si>
     <t>Email</t>
   </si>
   <si>
-    <t>ID</t>
+    <t>First name</t>
+  </si>
+  <si>
+    <t>Last name</t>
+  </si>
+  <si>
+    <t>Mobile Phone Number</t>
+  </si>
+  <si>
+    <t>Staff ID</t>
   </si>
 </sst>
 </file>
@@ -411,23 +411,23 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
